--- a/Data/databases/temp_use_phase.xlsx
+++ b/Data/databases/temp_use_phase.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="145">
   <si>
     <t>Database</t>
   </si>
   <si>
-    <t>case1_apos</t>
+    <t>case1_consq</t>
   </si>
   <si>
     <t>Unnamed: 2</t>
@@ -79,159 +79,171 @@
     <t>market for aluminium, cast alloy</t>
   </si>
   <si>
+    <t>waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>treatment of waste paper, unsorted, sorting</t>
+  </si>
+  <si>
+    <t>market for electricity, high voltage</t>
+  </si>
+  <si>
+    <t>marginal heating grid</t>
+  </si>
+  <si>
+    <t>alubox (small + dishwasher)</t>
+  </si>
+  <si>
+    <t>alubox (small)</t>
+  </si>
+  <si>
+    <t>alubox (large + wipe)</t>
+  </si>
+  <si>
+    <t>waste wipe incineration</t>
+  </si>
+  <si>
+    <t>waste polyethylene</t>
+  </si>
+  <si>
+    <t>alubox (small + wipe)</t>
+  </si>
+  <si>
+    <t>H200 SU</t>
+  </si>
+  <si>
+    <t>H200</t>
+  </si>
+  <si>
+    <t>waste polypropylene</t>
+  </si>
+  <si>
+    <t>H400 SU</t>
+  </si>
+  <si>
+    <t>H400</t>
+  </si>
+  <si>
+    <t>H200 REC</t>
+  </si>
+  <si>
+    <t>market for polypropylene, granulate</t>
+  </si>
+  <si>
+    <t>polyethylene, high density, granulate, recycled to generic market for high density PE granulate</t>
+  </si>
+  <si>
+    <t>polyethylene production, high density, granulate, recycled</t>
+  </si>
+  <si>
+    <t>polyethylene terephthalate production, granulate, amorphous, recycled</t>
+  </si>
+  <si>
+    <t>H400 REC</t>
+  </si>
+  <si>
+    <t>anodising, aluminium sheet</t>
+  </si>
+  <si>
+    <t>impact extrusion of aluminium, 4 strokes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet rolling, aluminium </t>
+  </si>
+  <si>
+    <t>market for polysulfone</t>
+  </si>
+  <si>
+    <t>market for transport, freight, lorry 16-32 metric ton, EURO6</t>
+  </si>
+  <si>
+    <t>market for transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>market for corrugated board box</t>
+  </si>
+  <si>
+    <t>market for textile, nonwoven polypropylene</t>
+  </si>
+  <si>
+    <t>packaging film production, low density polyethylene</t>
+  </si>
+  <si>
+    <t>market for transport, freight train</t>
+  </si>
+  <si>
+    <t>alkylbenzene sulfonate production, linear, petrochemical</t>
+  </si>
+  <si>
+    <t>market for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>water production, deionised</t>
+  </si>
+  <si>
+    <t>market for water, completely softened</t>
+  </si>
+  <si>
+    <t>market for wastewater, average</t>
+  </si>
+  <si>
+    <t>wet wipe</t>
+  </si>
+  <si>
+    <t>market for fibre, cotton</t>
+  </si>
+  <si>
+    <t>market for isopropanol</t>
+  </si>
+  <si>
+    <t>market for ethanol, without water, in 99.7% solution state, from ethylene</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>2-Propanol</t>
+  </si>
+  <si>
+    <t>alubox EoL (large + dishwasher)</t>
+  </si>
+  <si>
+    <t>alubox EoL (small + dishwasher)</t>
+  </si>
+  <si>
+    <t>alubox EoL (large + wipe)</t>
+  </si>
+  <si>
+    <t>alubox EoL (small + wipe)</t>
+  </si>
+  <si>
+    <t>heat production, air-water heat pump 10kW</t>
+  </si>
+  <si>
+    <t>heat production, hardwood chips from forest, at furnace 5000kW</t>
+  </si>
+  <si>
+    <t>heat production, natural gas, at boiler atmospheric non-modulating &lt;100kW</t>
+  </si>
+  <si>
+    <t>heat production, wood pellet, at furnace 300kW, state-of-the-art 2014</t>
+  </si>
+  <si>
     <t>treatment of waste plastic, mixture, municipal incineration with fly ash extraction</t>
   </si>
   <si>
-    <t>treatment of waste paper, unsorted, sorting</t>
-  </si>
-  <si>
-    <t>market for electricity, high voltage</t>
-  </si>
-  <si>
-    <t>mixed heating grid</t>
-  </si>
-  <si>
-    <t>alubox (small + dishwasher)</t>
-  </si>
-  <si>
-    <t>alubox (small)</t>
-  </si>
-  <si>
-    <t>alubox (large + wipe)</t>
-  </si>
-  <si>
-    <t>treatment of waste textile, soiled, municipal incineration with fly ash extraction</t>
+    <t>market for electricity, for reuse in municipal waste incineration only</t>
+  </si>
+  <si>
+    <t>market for heat, for reuse in municipal waste incineration only</t>
   </si>
   <si>
     <t>treatment of waste polyethylene, municipal incineration with fly ash extraction</t>
   </si>
   <si>
-    <t>alubox (small + wipe)</t>
-  </si>
-  <si>
-    <t>H200 SU</t>
-  </si>
-  <si>
-    <t>H200</t>
-  </si>
-  <si>
     <t>treatment of waste polypropylene, municipal incineration with fly ash extraction</t>
   </si>
   <si>
-    <t>H400 SU</t>
-  </si>
-  <si>
-    <t>H400</t>
-  </si>
-  <si>
-    <t>H200 REC</t>
-  </si>
-  <si>
-    <t>market for polypropylene, granulate</t>
-  </si>
-  <si>
-    <t>polyethylene, high density, granulate, recycled to generic market for high density PE granulate</t>
-  </si>
-  <si>
-    <t>polyethylene production, high density, granulate, recycled</t>
-  </si>
-  <si>
-    <t>polyethylene terephthalate production, granulate, amorphous, recycled</t>
-  </si>
-  <si>
-    <t>H400 REC</t>
-  </si>
-  <si>
-    <t>anodising, aluminium sheet</t>
-  </si>
-  <si>
-    <t>impact extrusion of aluminium, 4 strokes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheet rolling, aluminium </t>
-  </si>
-  <si>
-    <t>market for polysulfone</t>
-  </si>
-  <si>
-    <t>market for transport, freight, lorry 16-32 metric ton, EURO6</t>
-  </si>
-  <si>
-    <t>market for transport, freight, sea, container ship</t>
-  </si>
-  <si>
-    <t>market for corrugated board box</t>
-  </si>
-  <si>
-    <t>market for textile, nonwoven polypropylene</t>
-  </si>
-  <si>
-    <t>packaging film production, low density polyethylene</t>
-  </si>
-  <si>
-    <t>market for transport, freight train</t>
-  </si>
-  <si>
-    <t>alkylbenzene sulfonate production, linear, petrochemical</t>
-  </si>
-  <si>
-    <t>market for electricity, low voltage</t>
-  </si>
-  <si>
-    <t>water production, deionised</t>
-  </si>
-  <si>
-    <t>market for water, completely softened</t>
-  </si>
-  <si>
-    <t>market for wastewater, average</t>
-  </si>
-  <si>
-    <t>wet wipe</t>
-  </si>
-  <si>
-    <t>market for fibre, cotton</t>
-  </si>
-  <si>
-    <t>market for isopropanol</t>
-  </si>
-  <si>
-    <t>market for ethanol, without water, in 99.7% solution state, from ethylene</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>2-Propanol</t>
-  </si>
-  <si>
-    <t>heat production from hot water</t>
-  </si>
-  <si>
-    <t>Energy, solar, converted</t>
-  </si>
-  <si>
-    <t>auxiliary heating unit production, electric, 5kW</t>
-  </si>
-  <si>
-    <t>solar collector system installation, Cu flat plate collector, multiple dwelling, hot water</t>
-  </si>
-  <si>
-    <t>heat production, at hard coal industrial furnace 1-10MW</t>
-  </si>
-  <si>
-    <t>heat production, hardwood chips from forest, at furnace 5000kW, state-of-the-art 2014</t>
-  </si>
-  <si>
-    <t>heat production, natural gas, at industrial furnace low-NOx &gt;100kW</t>
-  </si>
-  <si>
-    <t>heat production, wood pellet, at furnace 300kW, state-of-the-art 2014</t>
-  </si>
-  <si>
-    <t>heavy fuel oil, burned in refinery furnace</t>
-  </si>
-  <si>
     <t>alubox ALC</t>
   </si>
   <si>
@@ -256,61 +268,70 @@
     <t>H400 H4S</t>
   </si>
   <si>
+    <t>H200 H2R</t>
+  </si>
+  <si>
+    <t>H400 H4R</t>
+  </si>
+  <si>
+    <t>small alubox</t>
+  </si>
+  <si>
+    <t>large alubox</t>
+  </si>
+  <si>
+    <t>dishwaser cycle</t>
+  </si>
+  <si>
+    <t>autoclave cycle</t>
+  </si>
+  <si>
+    <t>alubox EoL</t>
+  </si>
+  <si>
+    <t>H200 SU EoL</t>
+  </si>
+  <si>
     <t>H200 REC EoL</t>
   </si>
   <si>
-    <t>alubox EoL</t>
-  </si>
-  <si>
-    <t>small alubox</t>
-  </si>
-  <si>
-    <t>large alubox</t>
-  </si>
-  <si>
-    <t>dishwaser cycle</t>
-  </si>
-  <si>
-    <t>autoclave cycle</t>
-  </si>
-  <si>
     <t>megajoule</t>
   </si>
   <si>
+    <t>eol pastuer filter</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>wipe incineation</t>
+  </si>
+  <si>
     <t>aluminium scrap, post-consumer, prepared for melting</t>
   </si>
   <si>
     <t>aluminium, cast alloy</t>
   </si>
   <si>
-    <t>waste plastic, mixture</t>
-  </si>
-  <si>
     <t>waste paper, unsorted</t>
   </si>
   <si>
     <t>electricity, high voltage</t>
   </si>
   <si>
-    <t>waste textile, soiled</t>
-  </si>
-  <si>
-    <t>waste polyethylene</t>
-  </si>
-  <si>
-    <t>waste polypropylene</t>
-  </si>
-  <si>
     <t>polypropylene, granulate</t>
   </si>
   <si>
-    <t>polyethylene, high density, granulate</t>
-  </si>
-  <si>
     <t>polyethylene, high density, granulate, recycled</t>
   </si>
   <si>
-    <t>polyethylene terephthalate, granulate, amorphous, recycled</t>
+    <t>waste polyethylene, for recycling, sorted</t>
+  </si>
+  <si>
+    <t>waste polyethylene terephthalate, for recycling, sorted</t>
   </si>
   <si>
     <t>polysulfone</t>
@@ -358,27 +379,27 @@
     <t>ethanol, without water, in 99.7% solution state, from ethylene</t>
   </si>
   <si>
-    <t>auxiliary heating unit, electric, 5kW</t>
-  </si>
-  <si>
-    <t>solar collector system, Cu flat plate collector, multiple dwelling, hot water</t>
+    <t>heat, air-water heat pump 10kW</t>
   </si>
   <si>
     <t>heat, district or industrial, other than natural gas</t>
   </si>
   <si>
-    <t>heat, district or industrial, natural gas</t>
+    <t>heat, central or small-scale, natural gas</t>
   </si>
   <si>
     <t>heat, central or small-scale, other than natural gas</t>
   </si>
   <si>
+    <t>electricity, for reuse in municipal waste incineration only</t>
+  </si>
+  <si>
+    <t>heat, for reuse in municipal waste incineration only</t>
+  </si>
+  <si>
     <t>RER</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
     <t>ROW</t>
   </si>
   <si>
@@ -391,9 +412,6 @@
     <t>US</t>
   </si>
   <si>
-    <t>kilogram</t>
-  </si>
-  <si>
     <t>kilowatt hour</t>
   </si>
   <si>
@@ -421,13 +439,10 @@
     <t>air</t>
   </si>
   <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
     <t>database</t>
   </si>
   <si>
-    <t>ev391apos</t>
+    <t>ev391consq</t>
   </si>
   <si>
     <t>biosphere</t>
@@ -791,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H285"/>
+  <dimension ref="A1:H445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -852,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -873,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -885,13 +900,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -902,16 +917,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -925,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H11" t="s">
         <v>1</v>
@@ -948,16 +963,16 @@
         <v>0.0625</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
@@ -971,16 +986,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H13" t="s">
         <v>1</v>
@@ -994,19 +1009,19 @@
         <v>0.00757</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1017,19 +1032,19 @@
         <v>-0.00719</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1040,19 +1055,19 @@
         <v>-0.000158</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1063,19 +1078,19 @@
         <v>0.0005910000000000001</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H17" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1086,19 +1101,19 @@
         <v>-0.00357</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H18" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1112,13 +1127,13 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H19" t="s">
         <v>1</v>
@@ -1145,7 +1160,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1153,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1174,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1186,13 +1201,13 @@
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1203,16 +1218,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H28" t="s">
         <v>1</v>
@@ -1226,16 +1241,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
@@ -1249,16 +1264,16 @@
         <v>0.03125</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
         <v>1</v>
@@ -1272,16 +1287,16 @@
         <v>0.125</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H31" t="s">
         <v>1</v>
@@ -1295,19 +1310,19 @@
         <v>0.00452</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1318,19 +1333,19 @@
         <v>-0.0043</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1341,19 +1356,19 @@
         <v>0.000316</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H34" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1364,19 +1379,19 @@
         <v>0.0009890000000000001</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1387,19 +1402,19 @@
         <v>-0.00178</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H36" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1413,13 +1428,13 @@
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H37" t="s">
         <v>1</v>
@@ -1446,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1454,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1475,7 +1490,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -1487,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1504,16 +1519,16 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H46" t="s">
         <v>1</v>
@@ -1527,16 +1542,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H47" t="s">
         <v>1</v>
@@ -1550,16 +1565,16 @@
         <v>0.0625</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H48" t="s">
         <v>1</v>
@@ -1573,16 +1588,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H49" t="s">
         <v>1</v>
@@ -1596,19 +1611,19 @@
         <v>0.00757</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H50" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1619,19 +1634,19 @@
         <v>-0.00719</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H51" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1642,19 +1657,19 @@
         <v>0.000158</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H52" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1665,19 +1680,19 @@
         <v>0.0005910000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G53" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H53" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1688,19 +1703,19 @@
         <v>0.002</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H54" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1711,19 +1726,19 @@
         <v>-0.0109</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H55" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1734,19 +1749,19 @@
         <v>-0.12</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H56" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1760,13 +1775,13 @@
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H57" t="s">
         <v>1</v>
@@ -1793,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1801,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -1822,7 +1837,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -1834,13 +1849,13 @@
         <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1851,16 +1866,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H66" t="s">
         <v>1</v>
@@ -1874,16 +1889,16 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H67" t="s">
         <v>1</v>
@@ -1897,16 +1912,16 @@
         <v>0.03125</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H68" t="s">
         <v>1</v>
@@ -1920,16 +1935,16 @@
         <v>0.125</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H69" t="s">
         <v>1</v>
@@ -1943,19 +1958,19 @@
         <v>0.00452</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H70" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -1966,19 +1981,19 @@
         <v>-0.0043</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H71" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -1989,19 +2004,19 @@
         <v>0.000316</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H72" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2012,19 +2027,19 @@
         <v>0.009889999999999999</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H73" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2035,19 +2050,19 @@
         <v>0.002</v>
       </c>
       <c r="C74" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H74" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2058,19 +2073,19 @@
         <v>-0.0109</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G75" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H75" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2081,19 +2096,19 @@
         <v>-0.12</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H76" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2107,13 +2122,13 @@
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E77" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H77" t="s">
         <v>1</v>
@@ -2140,7 +2155,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2148,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2169,7 +2184,7 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -2181,13 +2196,13 @@
         <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H85" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2198,16 +2213,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H86" t="s">
         <v>1</v>
@@ -2224,13 +2239,13 @@
         <v>32</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H87" t="s">
         <v>1</v>
@@ -2244,16 +2259,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H88" t="s">
         <v>1</v>
@@ -2267,19 +2282,19 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H89" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2290,19 +2305,19 @@
         <v>0.00727</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G90" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H90" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2313,19 +2328,19 @@
         <v>-0.92</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G91" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H91" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2339,13 +2354,13 @@
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E92" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G92" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H92" t="s">
         <v>1</v>
@@ -2359,19 +2374,19 @@
         <v>0.00316</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E93" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H93" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2395,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2403,7 +2418,7 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2424,7 +2439,7 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -2436,13 +2451,13 @@
         <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G101" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -2453,16 +2468,16 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E102" t="s">
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H102" t="s">
         <v>1</v>
@@ -2479,13 +2494,13 @@
         <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H103" t="s">
         <v>1</v>
@@ -2499,16 +2514,16 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C104" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H104" t="s">
         <v>1</v>
@@ -2522,19 +2537,19 @@
         <v>0.2</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E105" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G105" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -2545,19 +2560,19 @@
         <v>0.0219</v>
       </c>
       <c r="C106" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E106" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G106" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -2568,19 +2583,19 @@
         <v>-2.62</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G107" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H107" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -2594,13 +2609,13 @@
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G108" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H108" t="s">
         <v>1</v>
@@ -2614,19 +2629,19 @@
         <v>0.00899</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E109" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G109" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -2650,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -2658,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -2679,7 +2694,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -2691,13 +2706,13 @@
         <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G117" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H117" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -2708,16 +2723,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D118" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E118" t="s">
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H118" t="s">
         <v>1</v>
@@ -2734,13 +2749,13 @@
         <v>32</v>
       </c>
       <c r="D119" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H119" t="s">
         <v>1</v>
@@ -2754,16 +2769,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C120" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D120" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H120" t="s">
         <v>1</v>
@@ -2777,19 +2792,19 @@
         <v>0.0107</v>
       </c>
       <c r="C121" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D121" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E121" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G121" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H121" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -2800,19 +2815,19 @@
         <v>0.0109</v>
       </c>
       <c r="C122" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E122" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G122" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -2823,19 +2838,19 @@
         <v>-0.14</v>
       </c>
       <c r="C123" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D123" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E123" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G123" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H123" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -2849,13 +2864,13 @@
         <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E124" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G124" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H124" t="s">
         <v>1</v>
@@ -2869,19 +2884,19 @@
         <v>-0.0604</v>
       </c>
       <c r="C125" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D125" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E125" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G125" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H125" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -2892,19 +2907,19 @@
         <v>-0.00618</v>
       </c>
       <c r="C126" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D126" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G126" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H126" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -2915,19 +2930,19 @@
         <v>0.00727</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D127" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G127" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H127" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -2938,19 +2953,19 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="C128" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D128" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E128" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G128" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H128" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -2961,19 +2976,19 @@
         <v>0.00316</v>
       </c>
       <c r="C129" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D129" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G129" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H129" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -2997,7 +3012,7 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3005,7 +3020,7 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3026,7 +3041,7 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C137" t="s">
         <v>10</v>
@@ -3038,13 +3053,13 @@
         <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G137" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H137" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3055,16 +3070,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D138" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E138" t="s">
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H138" t="s">
         <v>1</v>
@@ -3081,13 +3096,13 @@
         <v>32</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E139" t="s">
         <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H139" t="s">
         <v>1</v>
@@ -3101,16 +3116,16 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C140" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D140" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E140" t="s">
         <v>12</v>
       </c>
       <c r="G140" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H140" t="s">
         <v>1</v>
@@ -3124,19 +3139,19 @@
         <v>0.0303</v>
       </c>
       <c r="C141" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D141" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E141" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G141" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H141" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -3147,19 +3162,19 @@
         <v>0.00329</v>
       </c>
       <c r="C142" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E142" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G142" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H142" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -3170,19 +3185,19 @@
         <v>-0.39</v>
       </c>
       <c r="C143" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D143" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E143" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G143" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H143" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -3196,13 +3211,13 @@
         <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E144" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G144" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H144" t="s">
         <v>1</v>
@@ -3216,19 +3231,19 @@
         <v>-0.17</v>
       </c>
       <c r="C145" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D145" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E145" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G145" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H145" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -3239,19 +3254,19 @@
         <v>-0.0186</v>
       </c>
       <c r="C146" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D146" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E146" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G146" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H146" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -3262,19 +3277,19 @@
         <v>0.0219</v>
       </c>
       <c r="C147" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D147" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E147" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G147" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H147" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -3285,19 +3300,19 @@
         <v>0.2</v>
       </c>
       <c r="C148" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D148" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E148" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G148" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H148" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -3308,19 +3323,19 @@
         <v>0.00899</v>
       </c>
       <c r="C149" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D149" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E149" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G149" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H149" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -3344,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -3352,7 +3367,7 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -3373,7 +3388,7 @@
         <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C157" t="s">
         <v>10</v>
@@ -3385,10 +3400,10 @@
         <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G157" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -3399,16 +3414,16 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D158" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E158" t="s">
         <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G158" t="s">
         <v>1</v>
@@ -3425,16 +3440,16 @@
         <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E159" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F159" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G159" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -3448,16 +3463,16 @@
         <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E160" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F160" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G160" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3471,16 +3486,16 @@
         <v>44</v>
       </c>
       <c r="D161" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E161" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F161" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G161" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3491,19 +3506,19 @@
         <v>0.000158</v>
       </c>
       <c r="C162" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D162" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E162" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F162" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G162" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -3514,19 +3529,19 @@
         <v>0.00513</v>
       </c>
       <c r="C163" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D163" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E163" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F163" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G163" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3537,19 +3552,19 @@
         <v>0.000113</v>
       </c>
       <c r="C164" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D164" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E164" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F164" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G164" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3560,19 +3575,19 @@
         <v>0.0005910000000000001</v>
       </c>
       <c r="C165" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D165" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E165" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F165" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G165" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -3596,7 +3611,7 @@
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -3604,7 +3619,7 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3625,7 +3640,7 @@
         <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C173" t="s">
         <v>10</v>
@@ -3637,10 +3652,10 @@
         <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G173" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3651,16 +3666,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D174" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E174" t="s">
         <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G174" t="s">
         <v>1</v>
@@ -3677,16 +3692,16 @@
         <v>42</v>
       </c>
       <c r="D175" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E175" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F175" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G175" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -3700,16 +3715,16 @@
         <v>43</v>
       </c>
       <c r="D176" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E176" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F176" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G176" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -3723,16 +3738,16 @@
         <v>44</v>
       </c>
       <c r="D177" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E177" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F177" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G177" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3743,19 +3758,19 @@
         <v>0.000316</v>
       </c>
       <c r="C178" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D178" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E178" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F178" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G178" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -3766,19 +3781,19 @@
         <v>0.00859</v>
       </c>
       <c r="C179" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D179" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E179" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F179" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G179" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3789,19 +3804,19 @@
         <v>0.00019</v>
       </c>
       <c r="C180" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D180" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E180" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F180" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G180" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -3812,19 +3827,19 @@
         <v>0.0009890000000000001</v>
       </c>
       <c r="C181" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D181" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E181" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F181" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G181" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3856,7 +3871,7 @@
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3877,7 +3892,7 @@
         <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C189" t="s">
         <v>10</v>
@@ -3889,10 +3904,10 @@
         <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G189" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -3906,13 +3921,13 @@
         <v>32</v>
       </c>
       <c r="D190" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E190" t="s">
         <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G190" t="s">
         <v>1</v>
@@ -3926,19 +3941,19 @@
         <v>0.063</v>
       </c>
       <c r="C191" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D191" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E191" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F191" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G191" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -3949,19 +3964,19 @@
         <v>0.008</v>
       </c>
       <c r="C192" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D192" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E192" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F192" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G192" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -3972,19 +3987,19 @@
         <v>0.00727</v>
       </c>
       <c r="C193" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D193" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E193" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F193" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G193" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -3995,19 +4010,19 @@
         <v>0.0028</v>
       </c>
       <c r="C194" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D194" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E194" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F194" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G194" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4018,19 +4033,19 @@
         <v>2.6E-05</v>
       </c>
       <c r="C195" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D195" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E195" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F195" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G195" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4041,19 +4056,19 @@
         <v>0.000181</v>
       </c>
       <c r="C196" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D196" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E196" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F196" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G196" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4064,19 +4079,19 @@
         <v>0.00333</v>
       </c>
       <c r="C197" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D197" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E197" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F197" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G197" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4087,19 +4102,19 @@
         <v>4.13E-05</v>
       </c>
       <c r="C198" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D198" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E198" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F198" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G198" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4131,7 +4146,7 @@
         <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4152,7 +4167,7 @@
         <v>14</v>
       </c>
       <c r="B206" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C206" t="s">
         <v>10</v>
@@ -4164,10 +4179,10 @@
         <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G206" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -4181,13 +4196,13 @@
         <v>35</v>
       </c>
       <c r="D207" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E207" t="s">
         <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G207" t="s">
         <v>1</v>
@@ -4201,19 +4216,19 @@
         <v>0.19</v>
       </c>
       <c r="C208" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D208" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E208" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F208" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G208" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -4224,19 +4239,19 @@
         <v>0.012</v>
       </c>
       <c r="C209" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D209" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E209" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F209" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G209" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -4247,19 +4262,19 @@
         <v>0.0219</v>
       </c>
       <c r="C210" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D210" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E210" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F210" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G210" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -4270,19 +4285,19 @@
         <v>0.008449999999999999</v>
       </c>
       <c r="C211" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D211" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E211" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F211" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G211" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -4293,19 +4308,19 @@
         <v>7.839999999999999E-05</v>
       </c>
       <c r="C212" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D212" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E212" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F212" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G212" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -4316,19 +4331,19 @@
         <v>0.000546</v>
       </c>
       <c r="C213" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D213" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E213" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F213" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G213" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -4339,19 +4354,19 @@
         <v>0.0101</v>
       </c>
       <c r="C214" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D214" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E214" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F214" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G214" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -4362,19 +4377,19 @@
         <v>0.000124</v>
       </c>
       <c r="C215" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D215" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E215" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F215" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G215" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -4398,7 +4413,7 @@
         <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -4406,7 +4421,7 @@
         <v>11</v>
       </c>
       <c r="B220" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -4427,7 +4442,7 @@
         <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C223" t="s">
         <v>10</v>
@@ -4439,10 +4454,10 @@
         <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G223" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -4453,16 +4468,16 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D224" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E224" t="s">
         <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G224" t="s">
         <v>1</v>
@@ -4476,19 +4491,19 @@
         <v>0.0052</v>
       </c>
       <c r="C225" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D225" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E225" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F225" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G225" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -4499,19 +4514,19 @@
         <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D226" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E226" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F226" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G226" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -4522,19 +4537,19 @@
         <v>70</v>
       </c>
       <c r="C227" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D227" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E227" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F227" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G227" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -4545,19 +4560,19 @@
         <v>140</v>
       </c>
       <c r="C228" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D228" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E228" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F228" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G228" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -4568,19 +4583,19 @@
         <v>-0.21</v>
       </c>
       <c r="C229" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D229" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E229" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F229" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G229" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -4612,7 +4627,7 @@
         <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -4633,7 +4648,7 @@
         <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C237" t="s">
         <v>10</v>
@@ -4645,13 +4660,13 @@
         <v>12</v>
       </c>
       <c r="F237" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G237" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H237" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -4665,13 +4680,13 @@
         <v>57</v>
       </c>
       <c r="D238" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E238" t="s">
         <v>12</v>
       </c>
       <c r="G238" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H238" t="s">
         <v>1</v>
@@ -4685,19 +4700,19 @@
         <v>0.001</v>
       </c>
       <c r="C239" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D239" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E239" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G239" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H239" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -4708,19 +4723,19 @@
         <v>0.002</v>
       </c>
       <c r="C240" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D240" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E240" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G240" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H240" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -4731,19 +4746,19 @@
         <v>0.0028</v>
       </c>
       <c r="C241" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D241" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E241" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G241" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H241" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -4754,19 +4769,19 @@
         <v>0.00543</v>
       </c>
       <c r="C242" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D242" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E242" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G242" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H242" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -4777,16 +4792,16 @@
         <v>0.0028</v>
       </c>
       <c r="E243" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F243" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G243" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H243" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -4797,16 +4812,16 @@
         <v>0.002</v>
       </c>
       <c r="E244" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F244" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G244" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H244" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -4830,7 +4845,7 @@
         <v>10</v>
       </c>
       <c r="B248" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -4838,7 +4853,7 @@
         <v>11</v>
       </c>
       <c r="B249" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -4859,7 +4874,7 @@
         <v>14</v>
       </c>
       <c r="B252" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C252" t="s">
         <v>10</v>
@@ -4871,13 +4886,13 @@
         <v>12</v>
       </c>
       <c r="F252" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G252" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H252" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -4888,16 +4903,16 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D253" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E253" t="s">
         <v>12</v>
       </c>
       <c r="G253" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H253" t="s">
         <v>1</v>
@@ -4911,19 +4926,19 @@
         <v>10.9</v>
       </c>
       <c r="C254" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D254" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E254" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G254" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H254" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -4934,19 +4949,19 @@
         <v>280</v>
       </c>
       <c r="C255" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D255" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E255" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G255" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H255" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -4957,19 +4972,19 @@
         <v>-0.28</v>
       </c>
       <c r="C256" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D256" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E256" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G256" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H256" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -4993,7 +5008,7 @@
         <v>10</v>
       </c>
       <c r="B260" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -5001,7 +5016,7 @@
         <v>11</v>
       </c>
       <c r="B261" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -5009,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="B262" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -5022,7 +5037,7 @@
         <v>14</v>
       </c>
       <c r="B264" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C264" t="s">
         <v>10</v>
@@ -5034,13 +5049,13 @@
         <v>12</v>
       </c>
       <c r="F264" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G264" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H264" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -5051,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D265" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E265" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G265" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H265" t="s">
         <v>1</v>
@@ -5068,228 +5083,231 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B266">
-        <v>0.28851</v>
+        <v>0.00757</v>
+      </c>
+      <c r="C266" t="s">
+        <v>98</v>
+      </c>
+      <c r="D266" t="s">
+        <v>127</v>
       </c>
       <c r="E266" t="s">
-        <v>86</v>
-      </c>
-      <c r="F266" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="G266" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H266" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>-0.00719</v>
       </c>
       <c r="C267" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D267" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E267" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G267" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H267" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B268">
-        <v>6.5545E-08</v>
+        <v>-0.000158</v>
       </c>
       <c r="C268" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D268" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E268" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="G268" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H268" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B269">
-        <v>0.23457</v>
+        <v>0.0005910000000000001</v>
       </c>
       <c r="C269" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D269" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E269" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="G269" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H269" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B270">
-        <v>6.5545E-08</v>
+        <v>-0.00357</v>
       </c>
       <c r="C270" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D270" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E270" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G270" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H270" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" t="s">
-        <v>8</v>
-      </c>
-      <c r="B272" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
         <v>24</v>
+      </c>
+      <c r="B271">
+        <v>-0.0128</v>
+      </c>
+      <c r="C271" t="s">
+        <v>24</v>
+      </c>
+      <c r="D271" t="s">
+        <v>77</v>
+      </c>
+      <c r="E271" t="s">
+        <v>93</v>
+      </c>
+      <c r="G271" t="s">
+        <v>139</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>9</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B273" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>10</v>
-      </c>
-      <c r="B274" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B275" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B276" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B277" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>14</v>
-      </c>
-      <c r="B278" t="s">
-        <v>74</v>
-      </c>
-      <c r="C278" t="s">
-        <v>10</v>
-      </c>
-      <c r="D278" t="s">
-        <v>11</v>
-      </c>
-      <c r="E278" t="s">
-        <v>12</v>
-      </c>
-      <c r="F278" t="s">
-        <v>130</v>
-      </c>
-      <c r="G278" t="s">
-        <v>131</v>
-      </c>
-      <c r="H278" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>24</v>
-      </c>
-      <c r="B279">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B279" t="s">
+        <v>78</v>
       </c>
       <c r="C279" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D279" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E279" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="F279" t="s">
+        <v>136</v>
       </c>
       <c r="G279" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H279" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B280">
-        <v>0.1026</v>
+        <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D280" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E280" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G280" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H280" t="s">
         <v>1</v>
@@ -5297,117 +5315,2554 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B281">
-        <v>0.0513</v>
+        <v>0.00452</v>
       </c>
       <c r="C281" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D281" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E281" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G281" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H281" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B282">
-        <v>0.4487</v>
+        <v>-0.0043</v>
       </c>
       <c r="C282" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D282" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="E282" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G282" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H282" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B283">
-        <v>0.20513</v>
+        <v>0.000316</v>
       </c>
       <c r="C283" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D283" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E283" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G283" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H283" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B284">
-        <v>0.1795</v>
+        <v>0.0009890000000000001</v>
       </c>
       <c r="C284" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D284" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E284" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G284" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H284" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285">
+        <v>-0.00178</v>
+      </c>
+      <c r="C285" t="s">
+        <v>101</v>
+      </c>
+      <c r="D285" t="s">
+        <v>129</v>
+      </c>
+      <c r="E285" t="s">
+        <v>132</v>
+      </c>
+      <c r="G285" t="s">
+        <v>139</v>
+      </c>
+      <c r="H285" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286">
+        <v>-0.00642</v>
+      </c>
+      <c r="C286" t="s">
+        <v>24</v>
+      </c>
+      <c r="D286" t="s">
+        <v>77</v>
+      </c>
+      <c r="E286" t="s">
+        <v>93</v>
+      </c>
+      <c r="G286" t="s">
+        <v>139</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>12</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" t="s">
+        <v>78</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294" t="s">
+        <v>12</v>
+      </c>
+      <c r="F294" t="s">
+        <v>136</v>
+      </c>
+      <c r="G294" t="s">
+        <v>137</v>
+      </c>
+      <c r="H294" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>65</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>90</v>
+      </c>
+      <c r="D295" t="s">
+        <v>77</v>
+      </c>
+      <c r="E295" t="s">
+        <v>12</v>
+      </c>
+      <c r="G295" t="s">
+        <v>138</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" t="s">
+        <v>19</v>
+      </c>
+      <c r="B296">
+        <v>0.00757</v>
+      </c>
+      <c r="C296" t="s">
+        <v>98</v>
+      </c>
+      <c r="D296" t="s">
+        <v>127</v>
+      </c>
+      <c r="E296" t="s">
+        <v>96</v>
+      </c>
+      <c r="G296" t="s">
+        <v>139</v>
+      </c>
+      <c r="H296" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="s">
+        <v>20</v>
+      </c>
+      <c r="B297">
+        <v>-0.00719</v>
+      </c>
+      <c r="C297" t="s">
+        <v>99</v>
+      </c>
+      <c r="D297" t="s">
+        <v>77</v>
+      </c>
+      <c r="E297" t="s">
+        <v>96</v>
+      </c>
+      <c r="G297" t="s">
+        <v>139</v>
+      </c>
+      <c r="H297" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>21</v>
+      </c>
+      <c r="B298">
+        <v>0.000158</v>
+      </c>
+      <c r="C298" t="s">
+        <v>94</v>
+      </c>
+      <c r="D298" t="s">
+        <v>95</v>
+      </c>
+      <c r="E298" t="s">
+        <v>96</v>
+      </c>
+      <c r="G298" t="s">
+        <v>139</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
+        <v>22</v>
+      </c>
+      <c r="B299">
+        <v>0.0005910000000000001</v>
+      </c>
+      <c r="C299" t="s">
+        <v>100</v>
+      </c>
+      <c r="D299" t="s">
+        <v>128</v>
+      </c>
+      <c r="E299" t="s">
+        <v>96</v>
+      </c>
+      <c r="G299" t="s">
+        <v>139</v>
+      </c>
+      <c r="H299" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" t="s">
+        <v>28</v>
+      </c>
+      <c r="B300">
+        <v>0.002</v>
+      </c>
+      <c r="C300" t="s">
+        <v>97</v>
+      </c>
+      <c r="D300" t="s">
+        <v>95</v>
+      </c>
+      <c r="E300" t="s">
+        <v>96</v>
+      </c>
+      <c r="G300" t="s">
+        <v>139</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>29</v>
+      </c>
+      <c r="B301">
+        <v>-0.0109</v>
+      </c>
+      <c r="C301" t="s">
+        <v>29</v>
+      </c>
+      <c r="D301" t="s">
+        <v>95</v>
+      </c>
+      <c r="E301" t="s">
+        <v>96</v>
+      </c>
+      <c r="G301" t="s">
+        <v>139</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" t="s">
+        <v>23</v>
+      </c>
+      <c r="B302">
+        <v>-0.12</v>
+      </c>
+      <c r="C302" t="s">
+        <v>101</v>
+      </c>
+      <c r="D302" t="s">
+        <v>129</v>
+      </c>
+      <c r="E302" t="s">
+        <v>132</v>
+      </c>
+      <c r="G302" t="s">
+        <v>139</v>
+      </c>
+      <c r="H302" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" t="s">
+        <v>24</v>
+      </c>
+      <c r="B303">
+        <v>-0.44</v>
+      </c>
+      <c r="C303" t="s">
+        <v>24</v>
+      </c>
+      <c r="D303" t="s">
+        <v>77</v>
+      </c>
+      <c r="E303" t="s">
+        <v>93</v>
+      </c>
+      <c r="G303" t="s">
+        <v>139</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>11</v>
+      </c>
+      <c r="B308" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" t="s">
+        <v>12</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>14</v>
+      </c>
+      <c r="B311" t="s">
+        <v>78</v>
+      </c>
+      <c r="C311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" t="s">
+        <v>12</v>
+      </c>
+      <c r="F311" t="s">
+        <v>136</v>
+      </c>
+      <c r="G311" t="s">
+        <v>137</v>
+      </c>
+      <c r="H311" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" t="s">
+        <v>66</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312" t="s">
+        <v>90</v>
+      </c>
+      <c r="D312" t="s">
+        <v>77</v>
+      </c>
+      <c r="E312" t="s">
+        <v>12</v>
+      </c>
+      <c r="G312" t="s">
+        <v>138</v>
+      </c>
+      <c r="H312" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+      <c r="B313">
+        <v>0.00452</v>
+      </c>
+      <c r="C313" t="s">
+        <v>98</v>
+      </c>
+      <c r="D313" t="s">
+        <v>127</v>
+      </c>
+      <c r="E313" t="s">
+        <v>96</v>
+      </c>
+      <c r="G313" t="s">
+        <v>139</v>
+      </c>
+      <c r="H313" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+      <c r="B314">
+        <v>-0.0043</v>
+      </c>
+      <c r="C314" t="s">
+        <v>99</v>
+      </c>
+      <c r="D314" t="s">
+        <v>77</v>
+      </c>
+      <c r="E314" t="s">
+        <v>96</v>
+      </c>
+      <c r="G314" t="s">
+        <v>139</v>
+      </c>
+      <c r="H314" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" t="s">
+        <v>21</v>
+      </c>
+      <c r="B315">
+        <v>0.000316</v>
+      </c>
+      <c r="C315" t="s">
+        <v>94</v>
+      </c>
+      <c r="D315" t="s">
+        <v>95</v>
+      </c>
+      <c r="E315" t="s">
+        <v>96</v>
+      </c>
+      <c r="G315" t="s">
+        <v>139</v>
+      </c>
+      <c r="H315" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" t="s">
+        <v>22</v>
+      </c>
+      <c r="B316">
+        <v>0.009889999999999999</v>
+      </c>
+      <c r="C316" t="s">
+        <v>100</v>
+      </c>
+      <c r="D316" t="s">
+        <v>128</v>
+      </c>
+      <c r="E316" t="s">
+        <v>96</v>
+      </c>
+      <c r="G316" t="s">
+        <v>139</v>
+      </c>
+      <c r="H316" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
+        <v>28</v>
+      </c>
+      <c r="B317">
+        <v>0.002</v>
+      </c>
+      <c r="C317" t="s">
+        <v>97</v>
+      </c>
+      <c r="D317" t="s">
+        <v>95</v>
+      </c>
+      <c r="E317" t="s">
+        <v>96</v>
+      </c>
+      <c r="G317" t="s">
+        <v>139</v>
+      </c>
+      <c r="H317" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318">
+        <v>-0.0109</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>95</v>
+      </c>
+      <c r="E318" t="s">
+        <v>96</v>
+      </c>
+      <c r="G318" t="s">
+        <v>139</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319">
+        <v>-0.12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>101</v>
+      </c>
+      <c r="D319" t="s">
+        <v>129</v>
+      </c>
+      <c r="E319" t="s">
+        <v>132</v>
+      </c>
+      <c r="G319" t="s">
+        <v>139</v>
+      </c>
+      <c r="H319" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320">
+        <v>-0.44</v>
+      </c>
+      <c r="C320" t="s">
+        <v>24</v>
+      </c>
+      <c r="D320" t="s">
+        <v>77</v>
+      </c>
+      <c r="E320" t="s">
+        <v>93</v>
+      </c>
+      <c r="G320" t="s">
+        <v>139</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" t="s">
+        <v>8</v>
+      </c>
+      <c r="B322" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" t="s">
+        <v>11</v>
+      </c>
+      <c r="B325" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" t="s">
+        <v>14</v>
+      </c>
+      <c r="B328" t="s">
+        <v>78</v>
+      </c>
+      <c r="C328" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328" t="s">
+        <v>12</v>
+      </c>
+      <c r="F328" t="s">
+        <v>136</v>
+      </c>
+      <c r="G328" t="s">
+        <v>137</v>
+      </c>
+      <c r="H328" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" t="s">
+        <v>31</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329" t="s">
+        <v>91</v>
+      </c>
+      <c r="D329" t="s">
+        <v>77</v>
+      </c>
+      <c r="E329" t="s">
+        <v>12</v>
+      </c>
+      <c r="G329" t="s">
+        <v>138</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" t="s">
+        <v>33</v>
+      </c>
+      <c r="B330">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="C330" t="s">
+        <v>33</v>
+      </c>
+      <c r="D330" t="s">
+        <v>95</v>
+      </c>
+      <c r="E330" t="s">
+        <v>96</v>
+      </c>
+      <c r="G330" t="s">
+        <v>139</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331">
+        <v>0.00727</v>
+      </c>
+      <c r="C331" t="s">
+        <v>29</v>
+      </c>
+      <c r="D331" t="s">
+        <v>95</v>
+      </c>
+      <c r="E331" t="s">
+        <v>96</v>
+      </c>
+      <c r="G331" t="s">
+        <v>139</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" t="s">
+        <v>23</v>
+      </c>
+      <c r="B332">
+        <v>-0.92</v>
+      </c>
+      <c r="C332" t="s">
+        <v>101</v>
+      </c>
+      <c r="D332" t="s">
+        <v>129</v>
+      </c>
+      <c r="E332" t="s">
+        <v>132</v>
+      </c>
+      <c r="G332" t="s">
+        <v>139</v>
+      </c>
+      <c r="H332" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" t="s">
+        <v>24</v>
+      </c>
+      <c r="B333">
+        <v>-3.3</v>
+      </c>
+      <c r="C333" t="s">
+        <v>24</v>
+      </c>
+      <c r="D333" t="s">
+        <v>77</v>
+      </c>
+      <c r="E333" t="s">
+        <v>93</v>
+      </c>
+      <c r="G333" t="s">
+        <v>139</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" t="s">
+        <v>22</v>
+      </c>
+      <c r="B334">
+        <v>0.00316</v>
+      </c>
+      <c r="C334" t="s">
+        <v>100</v>
+      </c>
+      <c r="D334" t="s">
+        <v>128</v>
+      </c>
+      <c r="E334" t="s">
+        <v>96</v>
+      </c>
+      <c r="G334" t="s">
+        <v>139</v>
+      </c>
+      <c r="H334" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" t="s">
+        <v>8</v>
+      </c>
+      <c r="B336" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" t="s">
+        <v>11</v>
+      </c>
+      <c r="B339" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" t="s">
+        <v>14</v>
+      </c>
+      <c r="B342" t="s">
+        <v>78</v>
+      </c>
+      <c r="C342" t="s">
+        <v>10</v>
+      </c>
+      <c r="D342" t="s">
+        <v>11</v>
+      </c>
+      <c r="E342" t="s">
+        <v>12</v>
+      </c>
+      <c r="F342" t="s">
+        <v>136</v>
+      </c>
+      <c r="G342" t="s">
+        <v>137</v>
+      </c>
+      <c r="H342" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>34</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>91</v>
+      </c>
+      <c r="D343" t="s">
+        <v>77</v>
+      </c>
+      <c r="E343" t="s">
+        <v>12</v>
+      </c>
+      <c r="G343" t="s">
+        <v>138</v>
+      </c>
+      <c r="H343" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" t="s">
+        <v>33</v>
+      </c>
+      <c r="B344">
+        <v>0.2</v>
+      </c>
+      <c r="C344" t="s">
+        <v>33</v>
+      </c>
+      <c r="D344" t="s">
+        <v>95</v>
+      </c>
+      <c r="E344" t="s">
+        <v>96</v>
+      </c>
+      <c r="G344" t="s">
+        <v>139</v>
+      </c>
+      <c r="H344" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" t="s">
+        <v>29</v>
+      </c>
+      <c r="B345">
+        <v>0.0219</v>
+      </c>
+      <c r="C345" t="s">
+        <v>29</v>
+      </c>
+      <c r="D345" t="s">
+        <v>95</v>
+      </c>
+      <c r="E345" t="s">
+        <v>96</v>
+      </c>
+      <c r="G345" t="s">
+        <v>139</v>
+      </c>
+      <c r="H345" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
+        <v>23</v>
+      </c>
+      <c r="B346">
+        <v>-2.62</v>
+      </c>
+      <c r="C346" t="s">
+        <v>101</v>
+      </c>
+      <c r="D346" t="s">
+        <v>129</v>
+      </c>
+      <c r="E346" t="s">
+        <v>132</v>
+      </c>
+      <c r="G346" t="s">
+        <v>139</v>
+      </c>
+      <c r="H346" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" t="s">
+        <v>24</v>
+      </c>
+      <c r="B347">
+        <v>-9.42</v>
+      </c>
+      <c r="C347" t="s">
+        <v>24</v>
+      </c>
+      <c r="D347" t="s">
+        <v>77</v>
+      </c>
+      <c r="E347" t="s">
+        <v>93</v>
+      </c>
+      <c r="G347" t="s">
+        <v>139</v>
+      </c>
+      <c r="H347" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" t="s">
+        <v>22</v>
+      </c>
+      <c r="B348">
+        <v>0.00899</v>
+      </c>
+      <c r="C348" t="s">
+        <v>100</v>
+      </c>
+      <c r="D348" t="s">
+        <v>128</v>
+      </c>
+      <c r="E348" t="s">
+        <v>96</v>
+      </c>
+      <c r="G348" t="s">
+        <v>139</v>
+      </c>
+      <c r="H348" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" t="s">
+        <v>8</v>
+      </c>
+      <c r="B350" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" t="s">
+        <v>11</v>
+      </c>
+      <c r="B353" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" t="s">
+        <v>12</v>
+      </c>
+      <c r="B354" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+      <c r="B356" t="s">
+        <v>78</v>
+      </c>
+      <c r="C356" t="s">
+        <v>10</v>
+      </c>
+      <c r="D356" t="s">
+        <v>11</v>
+      </c>
+      <c r="E356" t="s">
+        <v>12</v>
+      </c>
+      <c r="F356" t="s">
+        <v>136</v>
+      </c>
+      <c r="G356" t="s">
+        <v>137</v>
+      </c>
+      <c r="H356" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" t="s">
+        <v>36</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357" t="s">
+        <v>92</v>
+      </c>
+      <c r="D357" t="s">
+        <v>77</v>
+      </c>
+      <c r="E357" t="s">
+        <v>12</v>
+      </c>
+      <c r="G357" t="s">
+        <v>138</v>
+      </c>
+      <c r="H357" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" t="s">
+        <v>33</v>
+      </c>
+      <c r="B358">
+        <v>0.0107</v>
+      </c>
+      <c r="C358" t="s">
+        <v>33</v>
+      </c>
+      <c r="D358" t="s">
+        <v>95</v>
+      </c>
+      <c r="E358" t="s">
+        <v>96</v>
+      </c>
+      <c r="G358" t="s">
+        <v>139</v>
+      </c>
+      <c r="H358" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" t="s">
+        <v>29</v>
+      </c>
+      <c r="B359">
+        <v>0.0109</v>
+      </c>
+      <c r="C359" t="s">
+        <v>29</v>
+      </c>
+      <c r="D359" t="s">
+        <v>95</v>
+      </c>
+      <c r="E359" t="s">
+        <v>96</v>
+      </c>
+      <c r="G359" t="s">
+        <v>139</v>
+      </c>
+      <c r="H359" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" t="s">
+        <v>23</v>
+      </c>
+      <c r="B360">
+        <v>-0.14</v>
+      </c>
+      <c r="C360" t="s">
+        <v>101</v>
+      </c>
+      <c r="D360" t="s">
+        <v>129</v>
+      </c>
+      <c r="E360" t="s">
+        <v>132</v>
+      </c>
+      <c r="G360" t="s">
+        <v>139</v>
+      </c>
+      <c r="H360" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" t="s">
+        <v>24</v>
+      </c>
+      <c r="B361">
+        <v>-0.49</v>
+      </c>
+      <c r="C361" t="s">
+        <v>24</v>
+      </c>
+      <c r="D361" t="s">
+        <v>77</v>
+      </c>
+      <c r="E361" t="s">
+        <v>93</v>
+      </c>
+      <c r="G361" t="s">
+        <v>139</v>
+      </c>
+      <c r="H361" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" t="s">
+        <v>37</v>
+      </c>
+      <c r="B362">
+        <v>-0.0604</v>
+      </c>
+      <c r="C362" t="s">
+        <v>102</v>
+      </c>
+      <c r="D362" t="s">
+        <v>77</v>
+      </c>
+      <c r="E362" t="s">
+        <v>96</v>
+      </c>
+      <c r="G362" t="s">
+        <v>139</v>
+      </c>
+      <c r="H362" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" t="s">
+        <v>39</v>
+      </c>
+      <c r="B363">
+        <v>-0.00618</v>
+      </c>
+      <c r="C363" t="s">
+        <v>104</v>
+      </c>
+      <c r="D363" t="s">
+        <v>130</v>
+      </c>
+      <c r="E363" t="s">
+        <v>96</v>
+      </c>
+      <c r="G363" t="s">
+        <v>139</v>
+      </c>
+      <c r="H363" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" t="s">
+        <v>39</v>
+      </c>
+      <c r="B364">
+        <v>0.00727</v>
+      </c>
+      <c r="C364" t="s">
+        <v>104</v>
+      </c>
+      <c r="D364" t="s">
+        <v>130</v>
+      </c>
+      <c r="E364" t="s">
+        <v>96</v>
+      </c>
+      <c r="G364" t="s">
+        <v>139</v>
+      </c>
+      <c r="H364" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" t="s">
+        <v>40</v>
+      </c>
+      <c r="B365">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="C365" t="s">
+        <v>105</v>
+      </c>
+      <c r="D365" t="s">
+        <v>130</v>
+      </c>
+      <c r="E365" t="s">
+        <v>96</v>
+      </c>
+      <c r="G365" t="s">
+        <v>139</v>
+      </c>
+      <c r="H365" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366">
+        <v>0.00316</v>
+      </c>
+      <c r="C366" t="s">
+        <v>100</v>
+      </c>
+      <c r="D366" t="s">
+        <v>128</v>
+      </c>
+      <c r="E366" t="s">
+        <v>96</v>
+      </c>
+      <c r="G366" t="s">
+        <v>139</v>
+      </c>
+      <c r="H366" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" t="s">
+        <v>8</v>
+      </c>
+      <c r="B368" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" t="s">
+        <v>10</v>
+      </c>
+      <c r="B370" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" t="s">
+        <v>11</v>
+      </c>
+      <c r="B371" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="A372" t="s">
+        <v>12</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" t="s">
+        <v>14</v>
+      </c>
+      <c r="B374" t="s">
+        <v>78</v>
+      </c>
+      <c r="C374" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374" t="s">
+        <v>12</v>
+      </c>
+      <c r="F374" t="s">
+        <v>136</v>
+      </c>
+      <c r="G374" t="s">
+        <v>137</v>
+      </c>
+      <c r="H374" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="A375" t="s">
+        <v>41</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D375" t="s">
+        <v>77</v>
+      </c>
+      <c r="E375" t="s">
+        <v>12</v>
+      </c>
+      <c r="G375" t="s">
+        <v>138</v>
+      </c>
+      <c r="H375" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" t="s">
+        <v>33</v>
+      </c>
+      <c r="B376">
+        <v>0.0303</v>
+      </c>
+      <c r="C376" t="s">
+        <v>33</v>
+      </c>
+      <c r="D376" t="s">
+        <v>95</v>
+      </c>
+      <c r="E376" t="s">
+        <v>96</v>
+      </c>
+      <c r="G376" t="s">
+        <v>139</v>
+      </c>
+      <c r="H376" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" t="s">
+        <v>29</v>
+      </c>
+      <c r="B377">
+        <v>0.00329</v>
+      </c>
+      <c r="C377" t="s">
+        <v>29</v>
+      </c>
+      <c r="D377" t="s">
+        <v>95</v>
+      </c>
+      <c r="E377" t="s">
+        <v>96</v>
+      </c>
+      <c r="G377" t="s">
+        <v>139</v>
+      </c>
+      <c r="H377" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="A378" t="s">
+        <v>23</v>
+      </c>
+      <c r="B378">
+        <v>-0.39</v>
+      </c>
+      <c r="C378" t="s">
+        <v>101</v>
+      </c>
+      <c r="D378" t="s">
+        <v>129</v>
+      </c>
+      <c r="E378" t="s">
+        <v>132</v>
+      </c>
+      <c r="G378" t="s">
+        <v>139</v>
+      </c>
+      <c r="H378" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379" t="s">
+        <v>24</v>
+      </c>
+      <c r="B379">
+        <v>-1.41</v>
+      </c>
+      <c r="C379" t="s">
+        <v>24</v>
+      </c>
+      <c r="D379" t="s">
+        <v>77</v>
+      </c>
+      <c r="E379" t="s">
+        <v>93</v>
+      </c>
+      <c r="G379" t="s">
+        <v>139</v>
+      </c>
+      <c r="H379" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" t="s">
+        <v>37</v>
+      </c>
+      <c r="B380">
+        <v>-0.17</v>
+      </c>
+      <c r="C380" t="s">
+        <v>102</v>
+      </c>
+      <c r="D380" t="s">
+        <v>77</v>
+      </c>
+      <c r="E380" t="s">
+        <v>96</v>
+      </c>
+      <c r="G380" t="s">
+        <v>139</v>
+      </c>
+      <c r="H380" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="A381" t="s">
+        <v>39</v>
+      </c>
+      <c r="B381">
+        <v>-0.0186</v>
+      </c>
+      <c r="C381" t="s">
+        <v>104</v>
+      </c>
+      <c r="D381" t="s">
+        <v>130</v>
+      </c>
+      <c r="E381" t="s">
+        <v>96</v>
+      </c>
+      <c r="G381" t="s">
+        <v>139</v>
+      </c>
+      <c r="H381" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382" t="s">
+        <v>39</v>
+      </c>
+      <c r="B382">
+        <v>0.0219</v>
+      </c>
+      <c r="C382" t="s">
+        <v>104</v>
+      </c>
+      <c r="D382" t="s">
+        <v>130</v>
+      </c>
+      <c r="E382" t="s">
+        <v>96</v>
+      </c>
+      <c r="G382" t="s">
+        <v>139</v>
+      </c>
+      <c r="H382" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" t="s">
+        <v>40</v>
+      </c>
+      <c r="B383">
+        <v>0.2</v>
+      </c>
+      <c r="C383" t="s">
+        <v>105</v>
+      </c>
+      <c r="D383" t="s">
+        <v>130</v>
+      </c>
+      <c r="E383" t="s">
+        <v>96</v>
+      </c>
+      <c r="G383" t="s">
+        <v>139</v>
+      </c>
+      <c r="H383" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" t="s">
+        <v>22</v>
+      </c>
+      <c r="B384">
+        <v>0.00899</v>
+      </c>
+      <c r="C384" t="s">
+        <v>100</v>
+      </c>
+      <c r="D384" t="s">
+        <v>128</v>
+      </c>
+      <c r="E384" t="s">
+        <v>96</v>
+      </c>
+      <c r="G384" t="s">
+        <v>139</v>
+      </c>
+      <c r="H384" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386" t="s">
+        <v>8</v>
+      </c>
+      <c r="B386" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" t="s">
+        <v>10</v>
+      </c>
+      <c r="B388" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="A389" t="s">
+        <v>11</v>
+      </c>
+      <c r="B389" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="A390" t="s">
+        <v>12</v>
+      </c>
+      <c r="B390" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392" t="s">
+        <v>14</v>
+      </c>
+      <c r="B392" t="s">
+        <v>78</v>
+      </c>
+      <c r="C392" t="s">
+        <v>10</v>
+      </c>
+      <c r="D392" t="s">
+        <v>11</v>
+      </c>
+      <c r="E392" t="s">
+        <v>12</v>
+      </c>
+      <c r="F392" t="s">
+        <v>136</v>
+      </c>
+      <c r="G392" t="s">
+        <v>137</v>
+      </c>
+      <c r="H392" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393" t="s">
+        <v>24</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393" t="s">
+        <v>24</v>
+      </c>
+      <c r="D393" t="s">
+        <v>77</v>
+      </c>
+      <c r="E393" t="s">
+        <v>93</v>
+      </c>
+      <c r="G393" t="s">
+        <v>138</v>
+      </c>
+      <c r="H393" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="A394" t="s">
+        <v>67</v>
+      </c>
+      <c r="B394">
+        <v>0.365</v>
+      </c>
+      <c r="C394" t="s">
+        <v>121</v>
+      </c>
+      <c r="D394" t="s">
+        <v>130</v>
+      </c>
+      <c r="E394" t="s">
+        <v>93</v>
+      </c>
+      <c r="G394" t="s">
+        <v>139</v>
+      </c>
+      <c r="H394" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" t="s">
+        <v>68</v>
+      </c>
+      <c r="B395">
+        <v>0.135</v>
+      </c>
+      <c r="C395" t="s">
+        <v>122</v>
+      </c>
+      <c r="D395" t="s">
+        <v>95</v>
+      </c>
+      <c r="E395" t="s">
+        <v>93</v>
+      </c>
+      <c r="G395" t="s">
+        <v>139</v>
+      </c>
+      <c r="H395" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396" t="s">
+        <v>69</v>
+      </c>
+      <c r="B396">
+        <v>0.365</v>
+      </c>
+      <c r="C396" t="s">
+        <v>123</v>
+      </c>
+      <c r="D396" t="s">
+        <v>130</v>
+      </c>
+      <c r="E396" t="s">
+        <v>93</v>
+      </c>
+      <c r="G396" t="s">
+        <v>139</v>
+      </c>
+      <c r="H396" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="A397" t="s">
+        <v>70</v>
+      </c>
+      <c r="B397">
+        <v>0.135</v>
+      </c>
+      <c r="C397" t="s">
+        <v>124</v>
+      </c>
+      <c r="D397" t="s">
+        <v>95</v>
+      </c>
+      <c r="E397" t="s">
+        <v>93</v>
+      </c>
+      <c r="G397" t="s">
+        <v>139</v>
+      </c>
+      <c r="H397" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="A399" t="s">
+        <v>8</v>
+      </c>
+      <c r="B399" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="A400" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="A402" t="s">
+        <v>11</v>
+      </c>
+      <c r="B402" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403" t="s">
+        <v>12</v>
+      </c>
+      <c r="B403" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405" t="s">
+        <v>14</v>
+      </c>
+      <c r="B405" t="s">
+        <v>78</v>
+      </c>
+      <c r="C405" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" t="s">
+        <v>11</v>
+      </c>
+      <c r="E405" t="s">
+        <v>12</v>
+      </c>
+      <c r="F405" t="s">
+        <v>136</v>
+      </c>
+      <c r="G405" t="s">
+        <v>137</v>
+      </c>
+      <c r="H405" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="A406" t="s">
+        <v>21</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406" t="s">
+        <v>94</v>
+      </c>
+      <c r="D406" t="s">
+        <v>95</v>
+      </c>
+      <c r="E406" t="s">
+        <v>96</v>
+      </c>
+      <c r="G406" t="s">
+        <v>138</v>
+      </c>
+      <c r="H406" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="A407" t="s">
         <v>71</v>
       </c>
-      <c r="B285">
-        <v>0.0128</v>
-      </c>
-      <c r="C285" t="s">
-        <v>71</v>
-      </c>
-      <c r="D285" t="s">
-        <v>123</v>
-      </c>
-      <c r="E285" t="s">
-        <v>86</v>
-      </c>
-      <c r="G285" t="s">
-        <v>133</v>
-      </c>
-      <c r="H285" t="s">
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407" t="s">
+        <v>21</v>
+      </c>
+      <c r="D407" t="s">
+        <v>95</v>
+      </c>
+      <c r="E407" t="s">
+        <v>96</v>
+      </c>
+      <c r="G407" t="s">
+        <v>139</v>
+      </c>
+      <c r="H407" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="A408" t="s">
+        <v>72</v>
+      </c>
+      <c r="B408">
+        <v>-1.0929</v>
+      </c>
+      <c r="C408" t="s">
+        <v>125</v>
+      </c>
+      <c r="D408" t="s">
+        <v>95</v>
+      </c>
+      <c r="E408" t="s">
+        <v>132</v>
+      </c>
+      <c r="G408" t="s">
+        <v>139</v>
+      </c>
+      <c r="H408" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="A409" t="s">
+        <v>73</v>
+      </c>
+      <c r="B409">
+        <v>-7.6601</v>
+      </c>
+      <c r="C409" t="s">
+        <v>126</v>
+      </c>
+      <c r="D409" t="s">
+        <v>95</v>
+      </c>
+      <c r="E409" t="s">
+        <v>93</v>
+      </c>
+      <c r="G409" t="s">
+        <v>139</v>
+      </c>
+      <c r="H409" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="A411" t="s">
+        <v>8</v>
+      </c>
+      <c r="B411" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="A412" t="s">
+        <v>9</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B413" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414" t="s">
+        <v>11</v>
+      </c>
+      <c r="B414" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415" t="s">
+        <v>12</v>
+      </c>
+      <c r="B415" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="A416" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="A417" t="s">
+        <v>14</v>
+      </c>
+      <c r="B417" t="s">
+        <v>78</v>
+      </c>
+      <c r="C417" t="s">
+        <v>10</v>
+      </c>
+      <c r="D417" t="s">
+        <v>11</v>
+      </c>
+      <c r="E417" t="s">
+        <v>12</v>
+      </c>
+      <c r="F417" t="s">
+        <v>136</v>
+      </c>
+      <c r="G417" t="s">
         <v>137</v>
+      </c>
+      <c r="H417" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="A418" t="s">
+        <v>29</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418" t="s">
+        <v>29</v>
+      </c>
+      <c r="D418" t="s">
+        <v>95</v>
+      </c>
+      <c r="E418" t="s">
+        <v>96</v>
+      </c>
+      <c r="G418" t="s">
+        <v>138</v>
+      </c>
+      <c r="H418" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="A419" t="s">
+        <v>74</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419" t="s">
+        <v>29</v>
+      </c>
+      <c r="D419" t="s">
+        <v>95</v>
+      </c>
+      <c r="E419" t="s">
+        <v>96</v>
+      </c>
+      <c r="G419" t="s">
+        <v>139</v>
+      </c>
+      <c r="H419" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="A420" t="s">
+        <v>72</v>
+      </c>
+      <c r="B420">
+        <v>-1.5428</v>
+      </c>
+      <c r="C420" t="s">
+        <v>125</v>
+      </c>
+      <c r="D420" t="s">
+        <v>95</v>
+      </c>
+      <c r="E420" t="s">
+        <v>132</v>
+      </c>
+      <c r="G420" t="s">
+        <v>139</v>
+      </c>
+      <c r="H420" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="A421" t="s">
+        <v>73</v>
+      </c>
+      <c r="B421">
+        <v>-10.694</v>
+      </c>
+      <c r="C421" t="s">
+        <v>126</v>
+      </c>
+      <c r="D421" t="s">
+        <v>95</v>
+      </c>
+      <c r="E421" t="s">
+        <v>93</v>
+      </c>
+      <c r="G421" t="s">
+        <v>139</v>
+      </c>
+      <c r="H421" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" t="s">
+        <v>8</v>
+      </c>
+      <c r="B423" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="A424" t="s">
+        <v>9</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="A425" t="s">
+        <v>10</v>
+      </c>
+      <c r="B425" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" t="s">
+        <v>11</v>
+      </c>
+      <c r="B426" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" t="s">
+        <v>12</v>
+      </c>
+      <c r="B427" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" t="s">
+        <v>14</v>
+      </c>
+      <c r="B429" t="s">
+        <v>78</v>
+      </c>
+      <c r="C429" t="s">
+        <v>10</v>
+      </c>
+      <c r="D429" t="s">
+        <v>11</v>
+      </c>
+      <c r="E429" t="s">
+        <v>12</v>
+      </c>
+      <c r="F429" t="s">
+        <v>136</v>
+      </c>
+      <c r="G429" t="s">
+        <v>137</v>
+      </c>
+      <c r="H429" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430" t="s">
+        <v>33</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430" t="s">
+        <v>33</v>
+      </c>
+      <c r="D430" t="s">
+        <v>95</v>
+      </c>
+      <c r="E430" t="s">
+        <v>96</v>
+      </c>
+      <c r="G430" t="s">
+        <v>138</v>
+      </c>
+      <c r="H430" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" t="s">
+        <v>75</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+      <c r="C431" t="s">
+        <v>33</v>
+      </c>
+      <c r="D431" t="s">
+        <v>95</v>
+      </c>
+      <c r="E431" t="s">
+        <v>96</v>
+      </c>
+      <c r="G431" t="s">
+        <v>139</v>
+      </c>
+      <c r="H431" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" t="s">
+        <v>72</v>
+      </c>
+      <c r="B432">
+        <v>-1.1687</v>
+      </c>
+      <c r="C432" t="s">
+        <v>125</v>
+      </c>
+      <c r="D432" t="s">
+        <v>95</v>
+      </c>
+      <c r="E432" t="s">
+        <v>132</v>
+      </c>
+      <c r="G432" t="s">
+        <v>139</v>
+      </c>
+      <c r="H432" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" t="s">
+        <v>73</v>
+      </c>
+      <c r="B433">
+        <v>-8.1515</v>
+      </c>
+      <c r="C433" t="s">
+        <v>126</v>
+      </c>
+      <c r="D433" t="s">
+        <v>95</v>
+      </c>
+      <c r="E433" t="s">
+        <v>93</v>
+      </c>
+      <c r="G433" t="s">
+        <v>139</v>
+      </c>
+      <c r="H433" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" t="s">
+        <v>8</v>
+      </c>
+      <c r="B435" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" t="s">
+        <v>9</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" t="s">
+        <v>10</v>
+      </c>
+      <c r="B437" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" t="s">
+        <v>11</v>
+      </c>
+      <c r="B438" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" t="s">
+        <v>12</v>
+      </c>
+      <c r="B439" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441" t="s">
+        <v>14</v>
+      </c>
+      <c r="B441" t="s">
+        <v>78</v>
+      </c>
+      <c r="C441" t="s">
+        <v>10</v>
+      </c>
+      <c r="D441" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441" t="s">
+        <v>12</v>
+      </c>
+      <c r="F441" t="s">
+        <v>136</v>
+      </c>
+      <c r="G441" t="s">
+        <v>137</v>
+      </c>
+      <c r="H441" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" t="s">
+        <v>28</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442" t="s">
+        <v>97</v>
+      </c>
+      <c r="D442" t="s">
+        <v>95</v>
+      </c>
+      <c r="E442" t="s">
+        <v>96</v>
+      </c>
+      <c r="G442" t="s">
+        <v>138</v>
+      </c>
+      <c r="H442" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="A443" t="s">
+        <v>75</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+      <c r="C443" t="s">
+        <v>33</v>
+      </c>
+      <c r="D443" t="s">
+        <v>95</v>
+      </c>
+      <c r="E443" t="s">
+        <v>96</v>
+      </c>
+      <c r="G443" t="s">
+        <v>139</v>
+      </c>
+      <c r="H443" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="A444" t="s">
+        <v>72</v>
+      </c>
+      <c r="B444">
+        <v>-0.49509</v>
+      </c>
+      <c r="C444" t="s">
+        <v>125</v>
+      </c>
+      <c r="D444" t="s">
+        <v>95</v>
+      </c>
+      <c r="E444" t="s">
+        <v>132</v>
+      </c>
+      <c r="G444" t="s">
+        <v>139</v>
+      </c>
+      <c r="H444" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" t="s">
+        <v>73</v>
+      </c>
+      <c r="B445">
+        <v>-3.5778</v>
+      </c>
+      <c r="C445" t="s">
+        <v>126</v>
+      </c>
+      <c r="D445" t="s">
+        <v>95</v>
+      </c>
+      <c r="E445" t="s">
+        <v>93</v>
+      </c>
+      <c r="G445" t="s">
+        <v>139</v>
+      </c>
+      <c r="H445" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
